--- a/Infoconvenios.xlsx
+++ b/Infoconvenios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\ProjetosPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F9221E-B4DD-4456-9FDF-DFA029524E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F37B25-A5C4-4793-9702-233DA8A1E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9F8264A-6B04-4D62-9038-5734ACB4A666}"/>
   </bookViews>
@@ -44,37 +44,120 @@
     <t>INFORMAÇÃO</t>
   </si>
   <si>
+    <t>AMIL</t>
+  </si>
+  <si>
+    <t>ONE HEALTH</t>
+  </si>
+  <si>
+    <t>SUL AMERICA</t>
+  </si>
+  <si>
+    <t>CAMED</t>
+  </si>
+  <si>
+    <t>MEDISERVICE</t>
+  </si>
+  <si>
+    <t>GAMA</t>
+  </si>
+  <si>
+    <t>GEAP</t>
+  </si>
+  <si>
+    <t>OMINT</t>
+  </si>
+  <si>
+    <t>CARE PLUS</t>
+  </si>
+  <si>
+    <t>SAUDE PETROBRAS</t>
+  </si>
+  <si>
+    <t>PORTO SEGURO</t>
+  </si>
+  <si>
+    <t>ALICE</t>
+  </si>
+  <si>
+    <t>Convênio: ALICE
+(VERMELHO) Precisa anexar o pedido médico
+Validade da Receita: INDETERMINADO (caso esteja datado é 180 dias) 
+Autorização Valida: 60 dias
+Prazo de autorização: Até 4 dias úteis.
+Telefone: (11) 4020-5270</t>
+  </si>
+  <si>
+    <t>POSTAL SAUDE</t>
+  </si>
+  <si>
+    <t>UNIMED SEGUROS</t>
+  </si>
+  <si>
+    <t>NOTRE DAME</t>
+  </si>
+  <si>
+    <t>VIVEST CESP</t>
+  </si>
+  <si>
+    <t>ASSEFAZ</t>
+  </si>
+  <si>
+    <t>SAUDE CAIXA</t>
+  </si>
+  <si>
+    <t>ECONOMUS</t>
+  </si>
+  <si>
+    <t>TRASMONTANO</t>
+  </si>
+  <si>
+    <t>METRUS</t>
+  </si>
+  <si>
+    <t>FACHESF</t>
+  </si>
+  <si>
+    <t>SAUDE RECIFE</t>
+  </si>
+  <si>
+    <t>CASSI</t>
+  </si>
+  <si>
+    <t>FISCO</t>
+  </si>
+  <si>
+    <t>CNU</t>
+  </si>
+  <si>
+    <t>CONVENIO</t>
+  </si>
+  <si>
     <t>Convenio: BRADESCO
 (VERDE) É possivel solicitar sem o pedido médico, porém tem exames que o convênio pode solicitar posteriormente
 Validade da Receita: 60 DIAS
 Autorização é válida por 30 dias 
 Prazo de autorização: Até 3 dias úteis (exceto exames complexos)
-Exceção para os exames COLON, COLONCASA, PETCTONCO, OCTAO e DERMAMAP que possuem o prazo de 10 dias úteis. Para o exame PCIRECOMB o prazo é de 12 dias úteis. 
+Exceção para os exames COLON, COLONCASA, PETCTONCO, OCTAO e DERMAMAP que possuem o prazo de 10 dias úteis. 
+Para o exame PCIRECOMB o prazo é de 12 dias úteis. 
 Central de Atendimento ao Prestador (somente CAPS e Unidade): (11) 4004-4580 24hrs</t>
   </si>
   <si>
-    <t>AMIL</t>
-  </si>
-  <si>
-    <t>Convênio: AMIL
-(VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 180 DIAS 
+    <t xml:space="preserve">Convênio: AMIL
+(VERMELHO) Precisa anexar o pedido médico
+Validade da Receita: 180 DIAS
 A autorização é válida por 60 dias
 Prazo de autorização: Até 3 dias úteis (exceto exames complexos)
-Exames de genética, Ressonância e Angio ressonância, obrigatório pedido médico com justificativa para realização do exame
-Prazo máximo para autorização: 10 dias úteis 
-TCCORONARIAS, ELASTROGRAFIA, TCODONTOMAND e TCODONTOMAXI.
-Prazo máximo para autorização: 7 dias úteis 
+Exames de genética, Ressonância e Angio ressonância, obrigatório pedido médico com justificativa para realização do exame. Prazo Até 10 dias úteis 
+TCCORONARIAS, ELASTROGRAFIA, TCODONTOMAND e TCODONTOMAXI. 
+Prazo autorização: Até 7 dias úteis 
 Central de Atendimento ao Prestador (somente para CAPS e Unidade): 
 (11) 3004-1000 Horário: 24 h 
 Fax Central de Atendimento ao Prestador: 
-(11) 3004-1000 Horário: 24 h</t>
-  </si>
-  <si>
-    <t>ONE HEALTH</t>
-  </si>
-  <si>
-    <t>Convênio: ONE HEALTH
+(11) 3004-1000 Horário: 24 h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convênio: ONE HEALTH
 (VERMELHO) Precisa anexar o pedido médico
 Validade da Receita: 180 DIAS, caso não esteja datado a validade é indeterminada.
 A autorização é válida por 60 dias. 
@@ -86,13 +169,10 @@
 Central de Atendimento ao Prestador (somente para CAPS e Unidade): 
 (11)3067-1001 Horário: 24 h 
 Fax Central de Atendimento ao Prestador: 
-(11) 3067-1001 Horário: 24 h</t>
-  </si>
-  <si>
-    <t>SUL AMERICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convênio: SUL AMERICA
+(11) 3067-1001 Horário: 24 h </t>
+  </si>
+  <si>
+    <t>Convênio: SUL AMERICA
 (VERDE) É possivel solicitar sem o pedido médico, porém tem exames que o convênio pode solicitar posteriormente
 Validade da Receita: INDETERMINADO 
 Autorização é válida por 30 dias 
@@ -101,55 +181,45 @@
 ELASTOFIG,OCTS e TCCORONARIAS, e é necessário envio do pedido e relatório médico por e-mail. 
 Central de Atendimento ao Prestador (somente CAPS/Unidade): (11) 4004-5901 
 Fax Central de Atendimento ao Prestador (somente CAPS/Unidade): 
-(11) 3759-5600 (contingência) </t>
-  </si>
-  <si>
-    <t>CAMED</t>
+(11) 3759-5600 (contingência)</t>
   </si>
   <si>
     <t>Convênio: CAMED
 (VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 60 DIAS  
+Validade da Receita: 60 DIAS
 Autorização é válida por 30 dias
 Prazo de autorização: Até 3 dias úteis sem contar a data do agendamento
 Central de Atendimento ao Prestador (somente para CAPS e Unidade): 4004-2323 24h</t>
   </si>
   <si>
-    <t>MEDISERVICE</t>
-  </si>
-  <si>
-    <t>Convênio: MEDISERVICE
+    <t xml:space="preserve">Convênio: MEDISERVICE
 (VERDE) É possivel solicitar sem o pedido médico, porém tem exames que o convênio pode solicitar posteriormente
-Validade da Receita: 60 DIAS 
+Validade da Receita: 60 DIAS
 A autorização é válida por 60 dias 
 Prazo de autorização: Até 3 dias úteis
-Central de Atendimento ao Prestador (somente para CAPS e Unidade): (11) 4004-2773 /4004-2710 Horario: 06:40 às 19:20h.</t>
+Central de Atendimento ao Prestador (somente para CAPS e Unidade): (11) 4004-2773 /4004-2710 Horario: 06:40 às 19:20h. </t>
   </si>
   <si>
     <t>Convênio: CENTRAL NACIONAL UNIMED
 (VERDE) É possivel solicitar sem o pedido médico, porém tem exames que o convênio pode solicitar posteriormente
-Validade da Receita: INDETERMINADO 
+Validade da Receita: INDETERMINADO
 A autorização é válida por 60 dias
 Prazo de autorização: Até 04 dias úteis
 Prazo para solicitação de autorização: ELASTOFIG, TCCORONARIAS, PETCTONCO, MAMOTOMIA, TILT, DERMAMAP e OCTS (ambos os olhos, direito ou esquerdo) cujo prazo é de até 7 dias úteis, sem contar a data do agendamento. 
 *Clientes Unimed Intercâmbio (Unimeds Fora da cidade de SP): Unimed Campinas /Unimed Vale Taquari / Unimed Natal / Unimed Vitoria: 
 Deverão trazer no dia do exame a GUIA Autorizada pela Central Nacional Unimed, a guia de autorização deve constar no site da Central Nacional Unimed (SAW). 
-Central de Atendimento ao Prestador (somente para CAPS e Unidade): (11) 2505-1111</t>
-  </si>
-  <si>
-    <t>GAMA</t>
+Central de Atendimento ao Prestador (somente para CAPS e Unidade): 
+  (11) 2505-1111</t>
   </si>
   <si>
     <t>Convênio: GAMA
 (VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 30 DIAS 
+Validade da Receita: 30 DIAS
 Autorização valida por 30 dias
 Prazo de autorização: Até 10 dias úteis 
 Exames de alto custo (MÉTODOS DIAGNóSTICOS POR IMAGEM, GENÉTICA, ANATOMIA PATOLóGICA E CITOPATOLOGIA, RESSONÂNCIA, TOMOGRAFIA, TESTE ERGOMÉTRICO): até 21 dias úteis 
-Central de Atendimento ao Prestador (somente para CAPS e Unidade):(11) 4004-0178</t>
-  </si>
-  <si>
-    <t>GEAP</t>
+Central de Atendimento ao Prestador (somente para CAPS e Unidade):
+(11) 4004-0178</t>
   </si>
   <si>
     <t>Convênio: GEAP
@@ -160,12 +230,9 @@
 Central de atendimento ao beneficiário/credenciado: 4008-4320/4345</t>
   </si>
   <si>
-    <t>OMINT</t>
-  </si>
-  <si>
     <t>Convênio: OMINT
 (VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 180 DIAS 
+Validade da Receita: 180 DIAS
 Autorização válida por 90 dias
 Prazo de autorização: É até 5 dias úteis para exames como ultrassom, tomografia e ressonância magnética. 
 Demais serviços de diagnóstico e terapia em regime ambulatorial, o prazo é de até 10 dias úteis. Procedimentos de alta complexidade (PAC), como cirurgias eletivas, têm um prazo máximo de 21 dias úteis. 
@@ -174,42 +241,21 @@
 Central de Atendimento ao Cliente: (11) 4004-4011 Horário: 24 horas</t>
   </si>
   <si>
-    <t>CARE PLUS</t>
-  </si>
-  <si>
     <t>Convênio: CARE PLUS
 (VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 90 DIAS 
+Validade da Receita: 90 DIAS
 Autorização válida por 30 dias
 Prazo de autorização: Até 3 dias úteis (incluindo o sábado)
 Central de Atendimento ao Prestador: (somente para CAPS e Unidade): (11) 4197-9074 ou 0800-407-9000</t>
   </si>
   <si>
-    <t>SAUDE PETROBRAS</t>
-  </si>
-  <si>
     <t>Convênio: SAUDE PETROBRAS
 (VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 30 DIAS 
+Validade da Receita: 30 DIAS
 Autorização valida por 30 dias 
 Prazo de Autorização: Até 3 dias úteis
 Exceto para os exames de TC CORONARIANAS, PETCTONCO E PCI (Cintilografia com o uso do Thyrogen)e ANESTESIA , prazo de 10 dias úteis.
-Contato: 0800 287 2267</t>
-  </si>
-  <si>
-    <t>PORTO SEGURO</t>
-  </si>
-  <si>
-    <t>Convênio: PORTO SEGURO
-(VERDE) É possivel solicitar sem o pedido médico, porém tem exames que o convênio pode solicitar posteriormente 
-Para exame de MAMOGRAFIA DIGITAL é obrigatório anexo do pedido médico.
-Validade da Receita: INDETERMINADO
-Autorização valida por 60 dias
-Prazo de Autorização: Até 5 dias úteis.
-Central de Atendimento ao Prestador (somente para CAPS e Unidade): (11) 3366-7333, 0800-7272550 / 0800-7275158 ou 3366-3633</t>
-  </si>
-  <si>
-    <t>ALICE</t>
+Contato 0800 287 2267</t>
   </si>
   <si>
     <t>Convênio: ALICE
@@ -220,25 +266,19 @@
 Telefone: (11) 4020-5270</t>
   </si>
   <si>
-    <t>POSTAL SAUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convênio: POSTAL SAUDE
-(VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 30 DIAS 
+    <t>Convênio: POSTAL SAUDE
+(VERMELHO) Precisa anexar o pedido médico
+Validade da Receita: 30 DIAS
 Autorização Valida: 90 DIAS 
 Prazo de autorização: Até 3 dias úteis
 Para o exame de TCCORONARIAS, é necessário envio imediato de pedido médico, relatório e, caso cliente tenha, laudos de exames anteriores. Para este exame, o prazo de autorização é de 10 dias úteis, sem contar a data do agendamento. 
 Central de Atendimento de Autorizações e Regulação: 
-0800 881 8080 - 24h. </t>
-  </si>
-  <si>
-    <t>UNIMED SEGUROS</t>
+0800 881 8080 - 24h.</t>
   </si>
   <si>
     <t>Convênio: UNIMED SEGUROS
 (VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 90 DIAS 
+Validade da Receita: 90 DIAS
 Autorização Valida: 30 DIAS
 Prazo de autorização: Até 3 dias úteis. 
 TELEFONES: 
@@ -246,12 +286,9 @@
 (11) 3003-5303</t>
   </si>
   <si>
-    <t>NOTRE DAME</t>
-  </si>
-  <si>
     <t>Convênio: NOTRE DAME
 (VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 60 DIAS 
+Validade da Receita: 60 DIAS
 Autorização Valida: 60 DIAS
 Prazo de autorização: Até 3 dias úteis exames de imagens. 
 Demais exames: cumprindo o prazo de ANS, são 10 dias úteis. 
@@ -261,79 +298,58 @@
 0800 463 4648</t>
   </si>
   <si>
-    <t>VIVEST CESP</t>
-  </si>
-  <si>
-    <t>Convênio: VIVEST CESP
-(VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 30 DIAS 
+    <t xml:space="preserve">Convênio: VIVEST CESP
+(VERMELHO) Precisa anexar o pedido médico
+Validade da Receita: 30 DIAS
 Autorização Valida: 60 DIAS
 Prazo de autorização: Até 48 horas uteis 
 Central de Atendimento ao Prestador (somente para CAPS e Unidade): 
-(11) 3065-3005/ 4004-0173</t>
-  </si>
-  <si>
-    <t>ASSEFAZ</t>
-  </si>
-  <si>
-    <t>Convênio: ASSEFAZ
-(VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 30 DIAS 
+(11) 3065-3005/ 4004-0173 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convênio: ASSEFAZ
+(VERMELHO) Precisa anexar o pedido médico
+Validade da Receita: 30 DIAS
 Autorização Valida: 30 DIAS
 Prazo de autorização: Até 3 dias úteis
 Telefone Central de Atendimento ao Prestador: 0800 703 4545 
-Horário: 24h</t>
-  </si>
-  <si>
-    <t>SAUDE CAIXA</t>
-  </si>
-  <si>
-    <t>Convênio: SAUDE CAIXA
-(VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 30 DIAS 
+Horário: 24h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convênio: SAUDE CAIXA
+(VERMELHO) Precisa anexar o pedido médico
+Validade da Receita: 30 DIAS
 Autorização Valida: 30 DIAS
 Prazo de autorização: Até 3 dias úteis 
-Telefone: 0800 095 60 Atendimento 24 horas</t>
-  </si>
-  <si>
-    <t>ECONOMUS</t>
+Telefone: 0800 095 60 Atendimento 24 horas </t>
   </si>
   <si>
     <t>Convênio: ECONOMUS
 (VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 30 DIAS 
+Validade da Receita: 30 DIAS
 Autorização Valida: 30 DIAS
 Prazo de autorização: Até 3 dias úteis (incluindo o sábado)
 Central de Atendimento ao Prestador (somente CAPS e Unidade): 
 0800 149 8000 (24 horas / 7 dias)</t>
   </si>
   <si>
-    <t>TRASMONTANO</t>
-  </si>
-  <si>
     <t>Convênio: TRASMONTANO
 (VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 60 DIAS 
+Validade da Receita: 60 DIAS
 Autorização Valida: 30 DIAS
 Prazo de autorização: Até 5 dias úteis p/ exames como ultrassom, tomografia e ressonância magnética
 Central de Atendimento ao Prestador (somente para CAPS e Unidade) para autorizações e elegibilidade 
 Telefone: (11) 3293-1515</t>
   </si>
   <si>
-    <t>METRUS</t>
-  </si>
-  <si>
     <t>Convênio: METRUS
 (VERMELHO) Precisa anexar o pedido médico
-Validade da Receita: 90 DIAS 
+Validade da Receita: 90 DIAS
 Autorização Valida: 60 DIAS
 Prazo de autorização: Até 72h úteis
 Central de Atendimento ao Prestador (somente para CAPS e Unidade): 
 0800 016 05 98 ou (11) 3371-3439 - Horário: 08:00 às 18:00h 
 Após 18hs – Plantão Metrus (11) 99601-4345 e (11) 99687-0929</t>
-  </si>
-  <si>
-    <t>FACHESF</t>
   </si>
   <si>
     <t>Convênio: FACHESF
@@ -347,9 +363,6 @@
 (81) 8103-9804 / 8103-0729 / 8102-0848 / 8154-7916</t>
   </si>
   <si>
-    <t>SAUDE RECIFE</t>
-  </si>
-  <si>
     <t>Convênio: SAUDE RECIFE 
 (VERMELHO) Precisa anexar o pedido médico
 Validade da Receita: 90 DIAS
@@ -359,40 +372,28 @@
 RESSONÂNCIA E TOMOGRAFIA: Até 20 a 25 dias úteis
 DEMAIS EXAMES: Prazo imediato, autorizado no ato do atendimento
 TELEFONES: 
-3355-1600 
+3355-1600
 3355-1601 
 3355-1655 
 08002812345</t>
   </si>
   <si>
-    <t>CASSI</t>
-  </si>
-  <si>
-    <t>Convênio: CASSI
+    <t xml:space="preserve">Convênio: CASSI
 (VERDE) É possivel solicitar sem o pedido médico, porém tem exames que o convênio pode solicitar posteriormente 
 Validade da Receita: 90 DIAS
 Autorização Valida: 30 DIAS
 Prazo de autorização: Até 3 dias úteis
 Central de Atendimento ao Prestador (somente para CAPS e Unidade): 
-0800 729 0080 Horário: 24h</t>
-  </si>
-  <si>
-    <t>FISCO</t>
-  </si>
-  <si>
-    <t>Convênio: FISCO
+0800 729 0080 Horário: 24h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convênio: FISCO
 (VERMELHO) Precisa anexar o pedido médico
 Validade da Receita: 60 DIAS 
 Autorização Valida: 30 DIAS
 Prazo de autorização: Até 3 dias úteis
 Fax Central de Atendimento ao Prestador (CAPS/Unidade): 
-(81) 3126-7700 Horário: 07:00 às 17:00 h</t>
-  </si>
-  <si>
-    <t>CNU</t>
-  </si>
-  <si>
-    <t>CONVENIO</t>
+(81) 3126-7700 Horário: 07:00 às 17:00 h </t>
   </si>
 </sst>
 </file>
@@ -809,7 +810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1692B2-5E04-42F1-B179-A2D60B040D47}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -819,226 +822,226 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
